--- a/result/training_invest_all_result_es12.xlsx
+++ b/result/training_invest_all_result_es12.xlsx
@@ -726,16 +726,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01580484583973885</v>
+        <v>0.04099026937037707</v>
       </c>
       <c r="E2" t="n">
-        <v>9820413.675000001</v>
+        <v>10000000</v>
       </c>
       <c r="F2" t="n">
-        <v>9320377</v>
+        <v>9425392.75</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -749,16 +749,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02110132947564125</v>
+        <v>0.03061714842915535</v>
       </c>
       <c r="E3" t="n">
-        <v>10605932.1</v>
+        <v>10242197.5</v>
       </c>
       <c r="F3" t="n">
-        <v>10824738.6</v>
+        <v>10991592.5</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -772,16 +772,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001685410388745368</v>
+        <v>0.002479022892657667</v>
       </c>
       <c r="E4" t="n">
-        <v>9330684.69025</v>
+        <v>9475435.92925</v>
       </c>
       <c r="F4" t="n">
-        <v>9564365.820249999</v>
+        <v>9598920.379249999</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -795,16 +795,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01496446877717972</v>
+        <v>0.02442954238504171</v>
       </c>
       <c r="E5" t="n">
-        <v>9726980.699999999</v>
+        <v>9950656.550000001</v>
       </c>
       <c r="F5" t="n">
-        <v>9500324.5</v>
+        <v>9572049.100000001</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -818,16 +818,16 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01154150906950235</v>
+        <v>0.01219905856996775</v>
       </c>
       <c r="E6" t="n">
-        <v>9843488.800000001</v>
+        <v>10141943.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9847390.900000002</v>
+        <v>10307393.2</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -841,16 +841,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006148803513497114</v>
+        <v>0.005731185059994459</v>
       </c>
       <c r="E7" t="n">
-        <v>10590092.98</v>
+        <v>10063336.297</v>
       </c>
       <c r="F7" t="n">
-        <v>10643395</v>
+        <v>10239507.1</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -864,16 +864,16 @@
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0168514046818018</v>
+        <v>0.01562912170775235</v>
       </c>
       <c r="E8" t="n">
-        <v>11113172.2975</v>
+        <v>10587843.0175</v>
       </c>
       <c r="F8" t="n">
-        <v>12294433.375</v>
+        <v>12411126.1</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -887,16 +887,16 @@
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006006750743836164</v>
+        <v>0.005643104622140527</v>
       </c>
       <c r="E9" t="n">
-        <v>9464906.105</v>
+        <v>9443811.470000001</v>
       </c>
       <c r="F9" t="n">
-        <v>9730758.08</v>
+        <v>9579072.295000002</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -910,16 +910,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003333364147692919</v>
+        <v>0.003253970423247665</v>
       </c>
       <c r="E10" t="n">
-        <v>10777127.949</v>
+        <v>10551820.68175</v>
       </c>
       <c r="F10" t="n">
-        <v>10365106.71925</v>
+        <v>10551820.68175</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -933,16 +933,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00615615351125598</v>
+        <v>0.005546773015521467</v>
       </c>
       <c r="E11" t="n">
-        <v>9894421.5165</v>
+        <v>9904911.745999999</v>
       </c>
       <c r="F11" t="n">
-        <v>9925882.885499999</v>
+        <v>10063777.2575</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -956,16 +956,16 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002087608678266406</v>
+        <v>0.001851772697409615</v>
       </c>
       <c r="E12" t="n">
-        <v>9549060</v>
+        <v>9380743.888400001</v>
       </c>
       <c r="F12" t="n">
-        <v>9549060</v>
+        <v>9389884</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -979,16 +979,16 @@
         <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03228915110230446</v>
+        <v>0.02751373751088977</v>
       </c>
       <c r="E13" t="n">
-        <v>10662588.1525</v>
+        <v>10609623.1</v>
       </c>
       <c r="F13" t="n">
-        <v>10292844.31</v>
+        <v>10609623.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1002,16 +1002,16 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003291929140686989</v>
+        <v>0.004083231487311423</v>
       </c>
       <c r="E14" t="n">
-        <v>10962944.795</v>
+        <v>10397321.7675</v>
       </c>
       <c r="F14" t="n">
-        <v>10962944.795</v>
+        <v>10397321.7675</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1025,16 +1025,16 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01512156054377556</v>
+        <v>0.01465991740114987</v>
       </c>
       <c r="E15" t="n">
         <v>10000000</v>
       </c>
       <c r="F15" t="n">
-        <v>9935375.714999998</v>
+        <v>9826972.42</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1048,16 +1048,16 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2676632702350616</v>
+        <v>0.1573351852595806</v>
       </c>
       <c r="E16" t="n">
-        <v>9547471.045</v>
+        <v>9937073.694999998</v>
       </c>
       <c r="F16" t="n">
-        <v>9547471.045</v>
+        <v>9496454.629999999</v>
       </c>
       <c r="G16" t="n">
-        <v>98</v>
+        <v>10462</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1071,16 +1071,16 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004185623023658991</v>
+        <v>0.003845919517334551</v>
       </c>
       <c r="E17" t="n">
-        <v>10099237.218</v>
+        <v>10480144.5335</v>
       </c>
       <c r="F17" t="n">
-        <v>10485389.5465</v>
+        <v>10423058.88925</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1094,16 +1094,16 @@
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02160605043172836</v>
+        <v>0.02003773022443056</v>
       </c>
       <c r="E18" t="n">
-        <v>10176133.106</v>
+        <v>10467115.265</v>
       </c>
       <c r="F18" t="n">
-        <v>10755813.58</v>
+        <v>10983622.579</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1117,16 +1117,16 @@
         <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01726737432181835</v>
+        <v>0.02838710499927401</v>
       </c>
       <c r="E19" t="n">
-        <v>10000000</v>
+        <v>10586987.875</v>
       </c>
       <c r="F19" t="n">
-        <v>10604014.4</v>
+        <v>10753120</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1140,16 +1140,16 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03101210482418537</v>
+        <v>0.03021331485360861</v>
       </c>
       <c r="E20" t="n">
-        <v>9547395.99</v>
+        <v>10000000</v>
       </c>
       <c r="F20" t="n">
-        <v>9009012.799999999</v>
+        <v>9301558.589999998</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1163,16 +1163,16 @@
         <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01623489521443844</v>
+        <v>0.0301233327947557</v>
       </c>
       <c r="E21" t="n">
-        <v>11423382.025</v>
+        <v>11402212.7</v>
       </c>
       <c r="F21" t="n">
-        <v>11354371.675</v>
+        <v>11402212.7</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1186,16 +1186,16 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07151417434215546</v>
+        <v>0.05847684890031814</v>
       </c>
       <c r="E22" t="n">
-        <v>10219733.3025</v>
+        <v>9873117.890000001</v>
       </c>
       <c r="F22" t="n">
-        <v>10022931.965</v>
+        <v>9873117.890000001</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1209,16 +1209,16 @@
         <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>0.008179391734302044</v>
+        <v>0.007042795233428478</v>
       </c>
       <c r="E23" t="n">
-        <v>10609091.7225</v>
+        <v>10193481.0605</v>
       </c>
       <c r="F23" t="n">
-        <v>10941473.26</v>
+        <v>11364767.2165</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1232,16 +1232,16 @@
         <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004915920086205006</v>
+        <v>0.004554665996693075</v>
       </c>
       <c r="E24" t="n">
-        <v>9218560.446500001</v>
+        <v>9409781</v>
       </c>
       <c r="F24" t="n">
-        <v>9046404.451999998</v>
+        <v>9005486.106000001</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1255,16 +1255,16 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02270483039319515</v>
+        <v>0.02274238048121333</v>
       </c>
       <c r="E25" t="n">
-        <v>10014205.375</v>
+        <v>10000000</v>
       </c>
       <c r="F25" t="n">
-        <v>10278170.88</v>
+        <v>10559623.485</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1278,16 +1278,16 @@
         <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01411451864987612</v>
+        <v>0.01384501550346613</v>
       </c>
       <c r="E26" t="n">
-        <v>9975176.2875</v>
+        <v>10664334.55</v>
       </c>
       <c r="F26" t="n">
-        <v>11209350.48</v>
+        <v>11052390.71</v>
       </c>
       <c r="G26" t="n">
-        <v>9</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1301,16 +1301,16 @@
         <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01064083259552717</v>
+        <v>0.007261221390217542</v>
       </c>
       <c r="E27" t="n">
-        <v>10147980.9035</v>
+        <v>10163782.27</v>
       </c>
       <c r="F27" t="n">
-        <v>10683189</v>
+        <v>10696869.5125</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1324,16 +1324,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01196683570742607</v>
+        <v>0.01107145356945693</v>
       </c>
       <c r="E28" t="n">
-        <v>9998968.352499995</v>
+        <v>10000000</v>
       </c>
       <c r="F28" t="n">
-        <v>10315317.85</v>
+        <v>10276430.875</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1347,16 +1347,16 @@
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003823151113465428</v>
+        <v>0.003356175753287971</v>
       </c>
       <c r="E29" t="n">
-        <v>9927052.187250001</v>
+        <v>10000000</v>
       </c>
       <c r="F29" t="n">
-        <v>9489150.2545</v>
+        <v>9644565.6</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1370,16 +1370,16 @@
         <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008627148345112801</v>
+        <v>0.008095292747020722</v>
       </c>
       <c r="E30" t="n">
-        <v>9984695.352500001</v>
+        <v>10000000</v>
       </c>
       <c r="F30" t="n">
-        <v>11242315.9</v>
+        <v>11126721.75</v>
       </c>
       <c r="G30" t="n">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1393,16 +1393,16 @@
         <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002111108042299747</v>
+        <v>0.001837708620587364</v>
       </c>
       <c r="E31" t="n">
-        <v>10350132.73975</v>
+        <v>10582562.677</v>
       </c>
       <c r="F31" t="n">
-        <v>10423246.1275</v>
+        <v>10329587.148</v>
       </c>
       <c r="G31" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1416,16 +1416,16 @@
         <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01753409393131733</v>
+        <v>0.02763007478788495</v>
       </c>
       <c r="E32" t="n">
         <v>10000000</v>
       </c>
       <c r="F32" t="n">
-        <v>11523139.2</v>
+        <v>11288759.275</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1439,16 +1439,16 @@
         <v>38</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01479819510132074</v>
+        <v>0.01497473535127938</v>
       </c>
       <c r="E33" t="n">
-        <v>9867223.525</v>
+        <v>10000000</v>
       </c>
       <c r="F33" t="n">
-        <v>9706019.949999999</v>
+        <v>9544997.350000001</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1462,16 +1462,16 @@
         <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01231856923550367</v>
+        <v>0.0117026090156287</v>
       </c>
       <c r="E34" t="n">
-        <v>10069021.3</v>
+        <v>10000000</v>
       </c>
       <c r="F34" t="n">
-        <v>8890053.120000001</v>
+        <v>8996404.33</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1485,16 +1485,16 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1144296899437904</v>
+        <v>0.08837436474859714</v>
       </c>
       <c r="E35" t="n">
-        <v>10310583.91</v>
+        <v>10387830.535</v>
       </c>
       <c r="F35" t="n">
-        <v>10310583.91</v>
+        <v>10387830.535</v>
       </c>
       <c r="G35" t="n">
-        <v>26</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1508,16 +1508,16 @@
         <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01855922117829323</v>
+        <v>0.03090215232223272</v>
       </c>
       <c r="E36" t="n">
-        <v>10000000</v>
+        <v>10553505.4</v>
       </c>
       <c r="F36" t="n">
-        <v>9621503.199999999</v>
+        <v>9654624.75</v>
       </c>
       <c r="G36" t="n">
-        <v>38</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1531,16 +1531,16 @@
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003819982521235943</v>
+        <v>0.003102849505376071</v>
       </c>
       <c r="E37" t="n">
-        <v>10889626.29265</v>
+        <v>11411299.5985</v>
       </c>
       <c r="F37" t="n">
-        <v>10889626.29265</v>
+        <v>11411299.5985</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1554,16 +1554,16 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2423045188188553</v>
+        <v>0.2215628273785114</v>
       </c>
       <c r="E38" t="n">
-        <v>9925129.619999999</v>
+        <v>10014384.25</v>
       </c>
       <c r="F38" t="n">
-        <v>9925129.619999999</v>
+        <v>10014384.25</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1577,16 +1577,16 @@
         <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01596119068562984</v>
+        <v>0.01476586270146072</v>
       </c>
       <c r="E39" t="n">
-        <v>10232977.052</v>
+        <v>10430654.357</v>
       </c>
       <c r="F39" t="n">
-        <v>10773227.059</v>
+        <v>10852761.94</v>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1600,16 +1600,16 @@
         <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02690429799258709</v>
+        <v>0.02482336843386292</v>
       </c>
       <c r="E40" t="n">
-        <v>9971447.119999999</v>
+        <v>10000000</v>
       </c>
       <c r="F40" t="n">
-        <v>10078595.8</v>
+        <v>10090534</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1623,16 +1623,16 @@
         <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01701530814170837</v>
+        <v>0.01837253337725997</v>
       </c>
       <c r="E41" t="n">
-        <v>9296985.5</v>
+        <v>10000000</v>
       </c>
       <c r="F41" t="n">
-        <v>9147230.699999999</v>
+        <v>9208376.875</v>
       </c>
       <c r="G41" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1646,16 +1646,16 @@
         <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006653188727796078</v>
+        <v>0.006087386724539101</v>
       </c>
       <c r="E42" t="n">
-        <v>10173538.215</v>
+        <v>10518185.2725</v>
       </c>
       <c r="F42" t="n">
-        <v>10325962.767</v>
+        <v>10468072.11525</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1669,16 +1669,16 @@
         <v>48</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01599823497235775</v>
+        <v>0.01600646683946252</v>
       </c>
       <c r="E43" t="n">
-        <v>10180293.1</v>
+        <v>10576198.35</v>
       </c>
       <c r="F43" t="n">
-        <v>10568284.6</v>
+        <v>10253564.85</v>
       </c>
       <c r="G43" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1692,16 +1692,16 @@
         <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01435268949717283</v>
+        <v>0.0151565111707896</v>
       </c>
       <c r="E44" t="n">
-        <v>10164146.5</v>
+        <v>10000000</v>
       </c>
       <c r="F44" t="n">
-        <v>10206936.75</v>
+        <v>10236402.2</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1715,16 +1715,16 @@
         <v>50</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001975173130631447</v>
+        <v>0.00166625555139035</v>
       </c>
       <c r="E45" t="n">
-        <v>8404393.993249997</v>
+        <v>8774780.790000001</v>
       </c>
       <c r="F45" t="n">
-        <v>8188607.925</v>
+        <v>8213727.887500001</v>
       </c>
       <c r="G45" t="n">
-        <v>19</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1738,16 +1738,16 @@
         <v>51</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01238372642546892</v>
+        <v>0.01226151487790048</v>
       </c>
       <c r="E46" t="n">
-        <v>9947016.43</v>
+        <v>10000000</v>
       </c>
       <c r="F46" t="n">
-        <v>9663252.440000001</v>
+        <v>9864819.339999998</v>
       </c>
       <c r="G46" t="n">
-        <v>31</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1761,16 +1761,16 @@
         <v>52</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009694320149719715</v>
+        <v>0.009636970749124885</v>
       </c>
       <c r="E47" t="n">
-        <v>12236805.885</v>
+        <v>11411215.135</v>
       </c>
       <c r="F47" t="n">
-        <v>13729034.79</v>
+        <v>13206556.375</v>
       </c>
       <c r="G47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1784,16 +1784,16 @@
         <v>53</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002875178586691618</v>
+        <v>0.002530440199188888</v>
       </c>
       <c r="E48" t="n">
-        <v>10112504.87025</v>
+        <v>10375311.362</v>
       </c>
       <c r="F48" t="n">
-        <v>10478691.874</v>
+        <v>10430580.08</v>
       </c>
       <c r="G48" t="n">
-        <v>15</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1807,13 +1807,13 @@
         <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>0.009451084770262241</v>
+        <v>0.008419063780456782</v>
       </c>
       <c r="E49" t="n">
-        <v>9832270.003999999</v>
+        <v>10000000</v>
       </c>
       <c r="F49" t="n">
-        <v>10218669.482</v>
+        <v>10281649.445</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>55</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01628413610160351</v>
+        <v>0.01541682598181069</v>
       </c>
       <c r="E50" t="n">
-        <v>10693834.65</v>
+        <v>10376860</v>
       </c>
       <c r="F50" t="n">
-        <v>10140048.6</v>
+        <v>10580740.65</v>
       </c>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1853,16 +1853,16 @@
         <v>56</v>
       </c>
       <c r="D51" t="n">
-        <v>0.009800033643841743</v>
+        <v>0.009744737436994911</v>
       </c>
       <c r="E51" t="n">
-        <v>9570057.960000001</v>
+        <v>10000000</v>
       </c>
       <c r="F51" t="n">
-        <v>9519946.8355</v>
+        <v>9414279.025</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1876,16 +1876,16 @@
         <v>57</v>
       </c>
       <c r="D52" t="n">
-        <v>0.006434882991015911</v>
+        <v>0.005932315019890666</v>
       </c>
       <c r="E52" t="n">
-        <v>9683307.819499999</v>
+        <v>10015139.7145</v>
       </c>
       <c r="F52" t="n">
-        <v>9683307.819499999</v>
+        <v>9536278.5405</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1899,16 +1899,16 @@
         <v>58</v>
       </c>
       <c r="D53" t="n">
-        <v>0.006512404419481754</v>
+        <v>0.005787577270530165</v>
       </c>
       <c r="E53" t="n">
-        <v>10147499.03</v>
+        <v>10867853.8725</v>
       </c>
       <c r="F53" t="n">
-        <v>10897600.375</v>
+        <v>11566131.625</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1922,16 +1922,16 @@
         <v>59</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01553278882056475</v>
+        <v>0.01502611748874188</v>
       </c>
       <c r="E54" t="n">
-        <v>10444247.23</v>
+        <v>10406825.3125</v>
       </c>
       <c r="F54" t="n">
-        <v>10444247.23</v>
+        <v>10406825.3125</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1945,16 +1945,16 @@
         <v>60</v>
       </c>
       <c r="D55" t="n">
-        <v>0.004159295465797186</v>
+        <v>0.003867575479671359</v>
       </c>
       <c r="E55" t="n">
-        <v>9706984.6875</v>
+        <v>9709282.790000001</v>
       </c>
       <c r="F55" t="n">
-        <v>9486934.875</v>
+        <v>9438147.475</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1968,16 +1968,16 @@
         <v>61</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002522739348933101</v>
+        <v>0.002717686409596354</v>
       </c>
       <c r="E56" t="n">
-        <v>10016165.1295</v>
+        <v>11074146.319</v>
       </c>
       <c r="F56" t="n">
-        <v>11272303.4725</v>
+        <v>11060536.135</v>
       </c>
       <c r="G56" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1991,16 +1991,16 @@
         <v>62</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01132535841315985</v>
+        <v>0.01078064097091556</v>
       </c>
       <c r="E57" t="n">
-        <v>9664789.177500002</v>
+        <v>10000000</v>
       </c>
       <c r="F57" t="n">
-        <v>9100947.385</v>
+        <v>9421651.8575</v>
       </c>
       <c r="G57" t="n">
-        <v>29</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2014,16 +2014,16 @@
         <v>63</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01421315036714077</v>
+        <v>0.01430129087530077</v>
       </c>
       <c r="E58" t="n">
-        <v>10041042.94</v>
+        <v>10009804.65</v>
       </c>
       <c r="F58" t="n">
-        <v>9322737.390000001</v>
+        <v>9279008.200000001</v>
       </c>
       <c r="G58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2037,16 +2037,16 @@
         <v>64</v>
       </c>
       <c r="D59" t="n">
-        <v>0.009273718111217022</v>
+        <v>0.008861447498202325</v>
       </c>
       <c r="E59" t="n">
-        <v>10191770.305</v>
+        <v>10000000</v>
       </c>
       <c r="F59" t="n">
-        <v>10751263.8475</v>
+        <v>10559937.84</v>
       </c>
       <c r="G59" t="n">
-        <v>11</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2060,16 +2060,16 @@
         <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03454847261309624</v>
+        <v>0.02786550419405103</v>
       </c>
       <c r="E60" t="n">
-        <v>10931174.7225</v>
+        <v>11700673.9575</v>
       </c>
       <c r="F60" t="n">
-        <v>11446516.36</v>
+        <v>11700673.9575</v>
       </c>
       <c r="G60" t="n">
-        <v>99</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2083,16 +2083,16 @@
         <v>66</v>
       </c>
       <c r="D61" t="n">
-        <v>0.009735758416354656</v>
+        <v>0.008994788490235805</v>
       </c>
       <c r="E61" t="n">
-        <v>9875831.279999999</v>
+        <v>10000000</v>
       </c>
       <c r="F61" t="n">
-        <v>9875115.43</v>
+        <v>10222325.2675</v>
       </c>
       <c r="G61" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2106,16 +2106,16 @@
         <v>67</v>
       </c>
       <c r="D62" t="n">
-        <v>0.004738221410661936</v>
+        <v>0.004647956998087466</v>
       </c>
       <c r="E62" t="n">
-        <v>10025444.1175</v>
+        <v>10000000</v>
       </c>
       <c r="F62" t="n">
-        <v>9396570.5075</v>
+        <v>9519674.98</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2129,16 +2129,16 @@
         <v>68</v>
       </c>
       <c r="D63" t="n">
-        <v>0.004320375621318817</v>
+        <v>0.003210169647354633</v>
       </c>
       <c r="E63" t="n">
-        <v>10039115.4904</v>
+        <v>9901365.882250002</v>
       </c>
       <c r="F63" t="n">
-        <v>10039115.4904</v>
+        <v>10133825.274</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2152,16 +2152,16 @@
         <v>69</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02254887484014034</v>
+        <v>0.02454038625583053</v>
       </c>
       <c r="E64" t="n">
-        <v>10183795.5</v>
+        <v>10224576.4</v>
       </c>
       <c r="F64" t="n">
-        <v>10294722.865</v>
+        <v>10345366.6375</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2175,16 +2175,16 @@
         <v>70</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008921625092625618</v>
+        <v>0.008927896618843079</v>
       </c>
       <c r="E65" t="n">
-        <v>11698360.645</v>
+        <v>10108290.25</v>
       </c>
       <c r="F65" t="n">
-        <v>13867455.525</v>
+        <v>13205379.36</v>
       </c>
       <c r="G65" t="n">
-        <v>12</v>
+        <v>655</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2198,16 +2198,16 @@
         <v>71</v>
       </c>
       <c r="D66" t="n">
-        <v>0.007109664380550385</v>
+        <v>0.006593430950306356</v>
       </c>
       <c r="E66" t="n">
-        <v>9200483.639999999</v>
+        <v>10000000</v>
       </c>
       <c r="F66" t="n">
-        <v>9200483.639999999</v>
+        <v>9330350.442499999</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>679</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2221,16 +2221,16 @@
         <v>72</v>
       </c>
       <c r="D67" t="n">
-        <v>0.008442890830338001</v>
+        <v>0.008098123176023365</v>
       </c>
       <c r="E67" t="n">
-        <v>11930504.8375</v>
+        <v>10768907.595</v>
       </c>
       <c r="F67" t="n">
-        <v>10952595.97</v>
+        <v>10899237.1075</v>
       </c>
       <c r="G67" t="n">
-        <v>72</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2244,16 +2244,16 @@
         <v>73</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01152458321303129</v>
+        <v>0.01079127667471766</v>
       </c>
       <c r="E68" t="n">
-        <v>9337030.060000001</v>
+        <v>10000000</v>
       </c>
       <c r="F68" t="n">
-        <v>9346711.75</v>
+        <v>9271668.415000001</v>
       </c>
       <c r="G68" t="n">
-        <v>9</v>
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2267,16 +2267,16 @@
         <v>74</v>
       </c>
       <c r="D69" t="n">
-        <v>0.003200439969077706</v>
+        <v>0.002911766536999494</v>
       </c>
       <c r="E69" t="n">
-        <v>12251500.95415</v>
+        <v>10520677.34305</v>
       </c>
       <c r="F69" t="n">
-        <v>11118085.15715</v>
+        <v>10651409.0589</v>
       </c>
       <c r="G69" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2290,16 +2290,16 @@
         <v>75</v>
       </c>
       <c r="D70" t="n">
-        <v>0.009660352952778339</v>
+        <v>0.008345391554757952</v>
       </c>
       <c r="E70" t="n">
-        <v>9919001.984000001</v>
+        <v>10353234.112</v>
       </c>
       <c r="F70" t="n">
-        <v>10096490.825</v>
+        <v>9892816.048</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2313,16 +2313,16 @@
         <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002743623917922378</v>
+        <v>0.002410025708377361</v>
       </c>
       <c r="E71" t="n">
-        <v>10816154.455</v>
+        <v>10650629.9225</v>
       </c>
       <c r="F71" t="n">
-        <v>10166919.09</v>
+        <v>10885165.81</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2336,16 +2336,16 @@
         <v>77</v>
       </c>
       <c r="D72" t="n">
-        <v>0.008995481766760349</v>
+        <v>0.008484114892780781</v>
       </c>
       <c r="E72" t="n">
-        <v>10874757.8</v>
+        <v>10000000</v>
       </c>
       <c r="F72" t="n">
-        <v>12391775.75</v>
+        <v>12320247.25</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2359,16 +2359,16 @@
         <v>78</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03549768403172493</v>
+        <v>0.02869271226227283</v>
       </c>
       <c r="E73" t="n">
-        <v>12111403.9475</v>
+        <v>10000000</v>
       </c>
       <c r="F73" t="n">
-        <v>12095747.9725</v>
+        <v>11943084</v>
       </c>
       <c r="G73" t="n">
-        <v>36</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2382,16 +2382,16 @@
         <v>79</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01832013390958309</v>
+        <v>0.01631975006312132</v>
       </c>
       <c r="E74" t="n">
         <v>10000000</v>
       </c>
       <c r="F74" t="n">
-        <v>9947093.279999997</v>
+        <v>10020267.6</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2405,16 +2405,16 @@
         <v>80</v>
       </c>
       <c r="D75" t="n">
-        <v>0.04124002158641815</v>
+        <v>0.03851905539631843</v>
       </c>
       <c r="E75" t="n">
-        <v>9516217.585000001</v>
+        <v>9646704.857500002</v>
       </c>
       <c r="F75" t="n">
-        <v>8514469</v>
+        <v>9673416.25</v>
       </c>
       <c r="G75" t="n">
-        <v>9</v>
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2428,16 +2428,16 @@
         <v>81</v>
       </c>
       <c r="D76" t="n">
-        <v>0.008032817393541336</v>
+        <v>0.005729224951937795</v>
       </c>
       <c r="E76" t="n">
-        <v>10513586.623</v>
+        <v>11440874.374</v>
       </c>
       <c r="F76" t="n">
-        <v>11812227.76</v>
+        <v>11777312.531</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2451,16 +2451,16 @@
         <v>82</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01767128333449364</v>
+        <v>0.01554020349867642</v>
       </c>
       <c r="E77" t="n">
-        <v>10757122.55</v>
+        <v>10110753.3375</v>
       </c>
       <c r="F77" t="n">
-        <v>10583473.54</v>
+        <v>10753886.575</v>
       </c>
       <c r="G77" t="n">
-        <v>26</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2474,16 +2474,16 @@
         <v>83</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01625007390975952</v>
+        <v>0.01491610780358315</v>
       </c>
       <c r="E78" t="n">
-        <v>10445054.9325</v>
+        <v>9538414.725</v>
       </c>
       <c r="F78" t="n">
-        <v>10867357.9795</v>
+        <v>10753085.242</v>
       </c>
       <c r="G78" t="n">
-        <v>15</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2497,16 +2497,16 @@
         <v>84</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001803536899387836</v>
+        <v>0.00157627880689688</v>
       </c>
       <c r="E79" t="n">
-        <v>9486474.253</v>
+        <v>9972159.136</v>
       </c>
       <c r="F79" t="n">
-        <v>9503850.262</v>
+        <v>9798737.626</v>
       </c>
       <c r="G79" t="n">
-        <v>38</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2520,16 +2520,16 @@
         <v>85</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00890997052192688</v>
+        <v>0.008412170829251409</v>
       </c>
       <c r="E80" t="n">
-        <v>9605990.462500002</v>
+        <v>9668862.730000002</v>
       </c>
       <c r="F80" t="n">
-        <v>9496393.105</v>
+        <v>9492430.664999999</v>
       </c>
       <c r="G80" t="n">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2543,16 +2543,16 @@
         <v>86</v>
       </c>
       <c r="D81" t="n">
-        <v>0.003684418043121696</v>
+        <v>0.003157887072302401</v>
       </c>
       <c r="E81" t="n">
-        <v>10171637.6585</v>
+        <v>10000000</v>
       </c>
       <c r="F81" t="n">
-        <v>9745194.799000001</v>
+        <v>9991352.102499999</v>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2566,16 +2566,16 @@
         <v>87</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01195132918655872</v>
+        <v>0.01127961319871247</v>
       </c>
       <c r="E82" t="n">
-        <v>10166842.075</v>
+        <v>10000000</v>
       </c>
       <c r="F82" t="n">
-        <v>10350110.35</v>
+        <v>10182813.9</v>
       </c>
       <c r="G82" t="n">
-        <v>18</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2589,16 +2589,16 @@
         <v>88</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01114936638623476</v>
+        <v>0.01038427008315921</v>
       </c>
       <c r="E83" t="n">
-        <v>10076572.425</v>
+        <v>10760629.85</v>
       </c>
       <c r="F83" t="n">
-        <v>10976192.425</v>
+        <v>10836641.25</v>
       </c>
       <c r="G83" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2612,16 +2612,16 @@
         <v>89</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0110964197665453</v>
+        <v>0.01033535529859364</v>
       </c>
       <c r="E84" t="n">
-        <v>10247852.71</v>
+        <v>10000000</v>
       </c>
       <c r="F84" t="n">
-        <v>10020518.245</v>
+        <v>10038873.2275</v>
       </c>
       <c r="G84" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2635,16 +2635,16 @@
         <v>90</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004732874687761068</v>
+        <v>0.004106892738491297</v>
       </c>
       <c r="E85" t="n">
-        <v>9880931.316</v>
+        <v>10367241.6</v>
       </c>
       <c r="F85" t="n">
-        <v>10309662.544</v>
+        <v>10367241.6</v>
       </c>
       <c r="G85" t="n">
-        <v>9</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2658,16 +2658,16 @@
         <v>91</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01434987969696522</v>
+        <v>0.01337206452153623</v>
       </c>
       <c r="E86" t="n">
-        <v>9905115.725000003</v>
+        <v>10000000</v>
       </c>
       <c r="F86" t="n">
-        <v>9591859.75</v>
+        <v>9629609.5375</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>749</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2681,16 +2681,16 @@
         <v>92</v>
       </c>
       <c r="D87" t="n">
-        <v>0.009024485945701599</v>
+        <v>0.008602324873209</v>
       </c>
       <c r="E87" t="n">
-        <v>10130876.305</v>
+        <v>10000000</v>
       </c>
       <c r="F87" t="n">
-        <v>10717737.325</v>
+        <v>10674346.96</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2704,16 +2704,16 @@
         <v>93</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01593822613358498</v>
+        <v>0.01607060320675373</v>
       </c>
       <c r="E88" t="n">
-        <v>10227227.93</v>
+        <v>9678443.5</v>
       </c>
       <c r="F88" t="n">
-        <v>11164717.6</v>
+        <v>9910290.565000001</v>
       </c>
       <c r="G88" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2727,16 +2727,16 @@
         <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>0.006638485472649336</v>
+        <v>0.006183933489955962</v>
       </c>
       <c r="E89" t="n">
-        <v>10055842.24</v>
+        <v>10000000</v>
       </c>
       <c r="F89" t="n">
-        <v>10782532.27</v>
+        <v>10557750.075</v>
       </c>
       <c r="G89" t="n">
-        <v>14</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2750,16 +2750,16 @@
         <v>95</v>
       </c>
       <c r="D90" t="n">
-        <v>0.007497385144233704</v>
+        <v>0.007105892081744969</v>
       </c>
       <c r="E90" t="n">
-        <v>9649255.427499998</v>
+        <v>10286982.815</v>
       </c>
       <c r="F90" t="n">
-        <v>9243526.880000001</v>
+        <v>9708517.65</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2773,16 +2773,16 @@
         <v>96</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03014424443244934</v>
+        <v>0.02461637863889337</v>
       </c>
       <c r="E91" t="n">
-        <v>9620931.935250003</v>
+        <v>9834198.1425</v>
       </c>
       <c r="F91" t="n">
-        <v>11242503.6715</v>
+        <v>10457179.03</v>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2796,16 +2796,16 @@
         <v>97</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01710302010178566</v>
+        <v>0.02339203795418143</v>
       </c>
       <c r="E92" t="n">
-        <v>9822968.6</v>
+        <v>10018849.6</v>
       </c>
       <c r="F92" t="n">
-        <v>9585674.9</v>
+        <v>9661796.049999999</v>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2819,16 +2819,16 @@
         <v>98</v>
       </c>
       <c r="D93" t="n">
-        <v>0.00793259683996439</v>
+        <v>0.007416861015371978</v>
       </c>
       <c r="E93" t="n">
-        <v>9934895.038500002</v>
+        <v>10000000</v>
       </c>
       <c r="F93" t="n">
-        <v>10621102.313</v>
+        <v>10679052.862</v>
       </c>
       <c r="G93" t="n">
-        <v>22</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2842,16 +2842,16 @@
         <v>99</v>
       </c>
       <c r="D94" t="n">
-        <v>0.003232371527701616</v>
+        <v>0.00268417987972498</v>
       </c>
       <c r="E94" t="n">
-        <v>9891553.6165</v>
+        <v>9725937.296499999</v>
       </c>
       <c r="F94" t="n">
-        <v>9691011.981999999</v>
+        <v>9654441.296</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2865,16 +2865,16 @@
         <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>0.001288864528760314</v>
+        <v>0.0009275919845094904</v>
       </c>
       <c r="E95" t="n">
-        <v>10193906.5586</v>
+        <v>10504707.24765</v>
       </c>
       <c r="F95" t="n">
-        <v>12052327.8972</v>
+        <v>11883842.5732</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2888,16 +2888,16 @@
         <v>101</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01556268893182278</v>
+        <v>0.01598811186850071</v>
       </c>
       <c r="E96" t="n">
-        <v>9787098.225000001</v>
+        <v>10000000</v>
       </c>
       <c r="F96" t="n">
-        <v>9992694.975</v>
+        <v>9640649.800000001</v>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2911,16 +2911,16 @@
         <v>102</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01397734507918358</v>
+        <v>0.01361415712162852</v>
       </c>
       <c r="E97" t="n">
-        <v>9034825.215</v>
+        <v>9947006.466</v>
       </c>
       <c r="F97" t="n">
-        <v>9003687.470000001</v>
+        <v>8881777.862</v>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2934,16 +2934,16 @@
         <v>103</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001510257832705975</v>
+        <v>0.001318616204662248</v>
       </c>
       <c r="E98" t="n">
-        <v>10394458.6375</v>
+        <v>10000000</v>
       </c>
       <c r="F98" t="n">
-        <v>10972778.502</v>
+        <v>10788237.241</v>
       </c>
       <c r="G98" t="n">
-        <v>30</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2957,13 +2957,13 @@
         <v>104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02936305105686188</v>
+        <v>0.04339548386633396</v>
       </c>
       <c r="E99" t="n">
         <v>10000000</v>
       </c>
       <c r="F99" t="n">
-        <v>10048181.325</v>
+        <v>9638712.880000001</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2980,16 +2980,16 @@
         <v>105</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0358908623456955</v>
+        <v>0.07216674126684666</v>
       </c>
       <c r="E100" t="n">
-        <v>10456350.7525</v>
+        <v>11242957.1425</v>
       </c>
       <c r="F100" t="n">
-        <v>10851166.475</v>
+        <v>11242957.1425</v>
       </c>
       <c r="G100" t="n">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3003,16 +3003,16 @@
         <v>106</v>
       </c>
       <c r="D101" t="n">
-        <v>0.004177860449999571</v>
+        <v>0.003641547460574657</v>
       </c>
       <c r="E101" t="n">
-        <v>10089249.419</v>
+        <v>10000000</v>
       </c>
       <c r="F101" t="n">
         <v>9767115.07</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/result/training_invest_all_result_es12.xlsx
+++ b/result/training_invest_all_result_es12.xlsx
@@ -726,16 +726,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04099026937037707</v>
+        <v>0.01553341560065746</v>
       </c>
       <c r="E2" t="n">
         <v>10000000</v>
       </c>
       <c r="F2" t="n">
-        <v>9425392.75</v>
+        <v>9719715.074999999</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -749,16 +749,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03061714842915535</v>
+        <v>0.01814304105937481</v>
       </c>
       <c r="E3" t="n">
-        <v>10242197.5</v>
+        <v>10000000</v>
       </c>
       <c r="F3" t="n">
-        <v>10991592.5</v>
+        <v>10814322.5</v>
       </c>
       <c r="G3" t="n">
-        <v>396</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -772,16 +772,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002479022892657667</v>
+        <v>0.001448764698579907</v>
       </c>
       <c r="E4" t="n">
-        <v>9475435.92925</v>
+        <v>9844742.589000002</v>
       </c>
       <c r="F4" t="n">
-        <v>9598920.379249999</v>
+        <v>10614558.81025</v>
       </c>
       <c r="G4" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -795,16 +795,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02442954238504171</v>
+        <v>0.01505250670015812</v>
       </c>
       <c r="E5" t="n">
-        <v>9950656.550000001</v>
+        <v>9497488.6</v>
       </c>
       <c r="F5" t="n">
-        <v>9572049.100000001</v>
+        <v>9497488.6</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -818,16 +818,16 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01219905856996775</v>
+        <v>0.01102466508746147</v>
       </c>
       <c r="E6" t="n">
-        <v>10141943.8</v>
+        <v>10000000</v>
       </c>
       <c r="F6" t="n">
-        <v>10307393.2</v>
+        <v>10508163.4</v>
       </c>
       <c r="G6" t="n">
-        <v>11537</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -841,16 +841,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005731185059994459</v>
+        <v>0.005245948676019907</v>
       </c>
       <c r="E7" t="n">
-        <v>10063336.297</v>
+        <v>10380798.165</v>
       </c>
       <c r="F7" t="n">
-        <v>10239507.1</v>
+        <v>10365740</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -864,16 +864,16 @@
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01562912170775235</v>
+        <v>0.01577694341540337</v>
       </c>
       <c r="E8" t="n">
-        <v>10587843.0175</v>
+        <v>10493019.5575</v>
       </c>
       <c r="F8" t="n">
-        <v>12411126.1</v>
+        <v>11037795.1375</v>
       </c>
       <c r="G8" t="n">
-        <v>189</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -887,16 +887,16 @@
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005643104622140527</v>
+        <v>0.005423533264547586</v>
       </c>
       <c r="E9" t="n">
-        <v>9443811.470000001</v>
+        <v>10000000</v>
       </c>
       <c r="F9" t="n">
-        <v>9579072.295000002</v>
+        <v>9505962.485000001</v>
       </c>
       <c r="G9" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -910,16 +910,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003253970423247665</v>
+        <v>0.002707016654312611</v>
       </c>
       <c r="E10" t="n">
-        <v>10551820.68175</v>
+        <v>9901826.68125</v>
       </c>
       <c r="F10" t="n">
-        <v>10551820.68175</v>
+        <v>10505008.855</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -933,16 +933,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005546773015521467</v>
+        <v>0.005190635100007057</v>
       </c>
       <c r="E11" t="n">
-        <v>9904911.745999999</v>
+        <v>10203983.476</v>
       </c>
       <c r="F11" t="n">
-        <v>10063777.2575</v>
+        <v>10192779.17875</v>
       </c>
       <c r="G11" t="n">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -956,16 +956,16 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001851772697409615</v>
+        <v>0.001697903382591903</v>
       </c>
       <c r="E12" t="n">
-        <v>9380743.888400001</v>
+        <v>9249977.891100001</v>
       </c>
       <c r="F12" t="n">
-        <v>9389884</v>
+        <v>9223101.512499999</v>
       </c>
       <c r="G12" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -979,16 +979,16 @@
         <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02751373751088977</v>
+        <v>0.02817562967538834</v>
       </c>
       <c r="E13" t="n">
-        <v>10609623.1</v>
+        <v>10410658.4975</v>
       </c>
       <c r="F13" t="n">
-        <v>10609623.1</v>
+        <v>9967017.82</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1002,16 +1002,16 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004083231487311423</v>
+        <v>0.005630199331790209</v>
       </c>
       <c r="E14" t="n">
-        <v>10397321.7675</v>
+        <v>10211119.669</v>
       </c>
       <c r="F14" t="n">
-        <v>10397321.7675</v>
+        <v>10211119.669</v>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1025,16 +1025,16 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01465991740114987</v>
+        <v>0.01391893718391657</v>
       </c>
       <c r="E15" t="n">
-        <v>10000000</v>
+        <v>9007273.74</v>
       </c>
       <c r="F15" t="n">
-        <v>9826972.42</v>
+        <v>9007273.74</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1048,16 +1048,16 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1573351852595806</v>
+        <v>0.1921440362930298</v>
       </c>
       <c r="E16" t="n">
-        <v>9937073.694999998</v>
+        <v>9566866.975000001</v>
       </c>
       <c r="F16" t="n">
-        <v>9496454.629999999</v>
+        <v>9566866.975000001</v>
       </c>
       <c r="G16" t="n">
-        <v>10462</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1071,16 +1071,16 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003845919517334551</v>
+        <v>0.003655133303254843</v>
       </c>
       <c r="E17" t="n">
-        <v>10480144.5335</v>
+        <v>9347903.813999997</v>
       </c>
       <c r="F17" t="n">
-        <v>10423058.88925</v>
+        <v>9376493.32425</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1094,16 +1094,16 @@
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02003773022443056</v>
+        <v>0.01999125443398952</v>
       </c>
       <c r="E18" t="n">
-        <v>10467115.265</v>
+        <v>9867315</v>
       </c>
       <c r="F18" t="n">
-        <v>10983622.579</v>
+        <v>10211913.0025</v>
       </c>
       <c r="G18" t="n">
-        <v>1084</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1117,16 +1117,16 @@
         <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02838710499927401</v>
+        <v>0.01681144163012505</v>
       </c>
       <c r="E19" t="n">
-        <v>10586987.875</v>
+        <v>10353498.7</v>
       </c>
       <c r="F19" t="n">
-        <v>10753120</v>
+        <v>10353498.7</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1140,16 +1140,16 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03021331485360861</v>
+        <v>0.03042344190180302</v>
       </c>
       <c r="E20" t="n">
         <v>10000000</v>
       </c>
       <c r="F20" t="n">
-        <v>9301558.589999998</v>
+        <v>9061474.609999999</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1163,16 +1163,16 @@
         <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0301233327947557</v>
+        <v>0.01620348356664181</v>
       </c>
       <c r="E21" t="n">
-        <v>11402212.7</v>
+        <v>10809734.25</v>
       </c>
       <c r="F21" t="n">
-        <v>11402212.7</v>
+        <v>10445857.6</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1186,16 +1186,16 @@
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05847684890031814</v>
+        <v>0.06084026768803596</v>
       </c>
       <c r="E22" t="n">
-        <v>9873117.890000001</v>
+        <v>9527402.35</v>
       </c>
       <c r="F22" t="n">
-        <v>9873117.890000001</v>
+        <v>9527402.35</v>
       </c>
       <c r="G22" t="n">
-        <v>8412</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1209,16 +1209,16 @@
         <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>0.007042795233428478</v>
+        <v>0.007154000923037529</v>
       </c>
       <c r="E23" t="n">
-        <v>10193481.0605</v>
+        <v>10885668.061</v>
       </c>
       <c r="F23" t="n">
-        <v>11364767.2165</v>
+        <v>10532469.166</v>
       </c>
       <c r="G23" t="n">
-        <v>2386</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1232,16 +1232,16 @@
         <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004554665996693075</v>
+        <v>0.004588788840919733</v>
       </c>
       <c r="E24" t="n">
-        <v>9409781</v>
+        <v>9259236.5</v>
       </c>
       <c r="F24" t="n">
-        <v>9005486.106000001</v>
+        <v>9259236.5</v>
       </c>
       <c r="G24" t="n">
-        <v>323</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1255,16 +1255,16 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02274238048121333</v>
+        <v>0.02172865904867649</v>
       </c>
       <c r="E25" t="n">
-        <v>10000000</v>
+        <v>10248860.81</v>
       </c>
       <c r="F25" t="n">
-        <v>10559623.485</v>
+        <v>10491362.9</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1278,16 +1278,16 @@
         <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01384501550346613</v>
+        <v>0.01361233461648226</v>
       </c>
       <c r="E26" t="n">
-        <v>10664334.55</v>
+        <v>10234690.585</v>
       </c>
       <c r="F26" t="n">
-        <v>11052390.71</v>
+        <v>11174475.8125</v>
       </c>
       <c r="G26" t="n">
-        <v>667</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1301,16 +1301,16 @@
         <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>0.007261221390217542</v>
+        <v>0.008131868205964565</v>
       </c>
       <c r="E27" t="n">
-        <v>10163782.27</v>
+        <v>10145517.486</v>
       </c>
       <c r="F27" t="n">
-        <v>10696869.5125</v>
+        <v>11010985.82</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1324,16 +1324,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01107145356945693</v>
+        <v>0.01110080815851688</v>
       </c>
       <c r="E28" t="n">
-        <v>10000000</v>
+        <v>9255035.920000002</v>
       </c>
       <c r="F28" t="n">
-        <v>10276430.875</v>
+        <v>9850612.800000001</v>
       </c>
       <c r="G28" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1347,16 +1347,16 @@
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003356175753287971</v>
+        <v>0.003366293851286173</v>
       </c>
       <c r="E29" t="n">
-        <v>10000000</v>
+        <v>10336758.268</v>
       </c>
       <c r="F29" t="n">
-        <v>9644565.6</v>
+        <v>10165036.795</v>
       </c>
       <c r="G29" t="n">
-        <v>194</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1370,16 +1370,16 @@
         <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008095292747020722</v>
+        <v>0.008128836750984192</v>
       </c>
       <c r="E30" t="n">
-        <v>10000000</v>
+        <v>10398503.3525</v>
       </c>
       <c r="F30" t="n">
-        <v>11126721.75</v>
+        <v>10516181.495</v>
       </c>
       <c r="G30" t="n">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1393,16 +1393,16 @@
         <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001837708620587364</v>
+        <v>0.001893846085295081</v>
       </c>
       <c r="E31" t="n">
-        <v>10582562.677</v>
+        <v>9967002.640000001</v>
       </c>
       <c r="F31" t="n">
-        <v>10329587.148</v>
+        <v>9967002.640000001</v>
       </c>
       <c r="G31" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1416,16 +1416,16 @@
         <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02763007478788495</v>
+        <v>0.01519084814935923</v>
       </c>
       <c r="E32" t="n">
         <v>10000000</v>
       </c>
       <c r="F32" t="n">
-        <v>11288759.275</v>
+        <v>11356866.3</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1439,16 +1439,16 @@
         <v>38</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01497473535127938</v>
+        <v>0.01468537095934153</v>
       </c>
       <c r="E33" t="n">
-        <v>10000000</v>
+        <v>10135038.4</v>
       </c>
       <c r="F33" t="n">
-        <v>9544997.350000001</v>
+        <v>9802577.5</v>
       </c>
       <c r="G33" t="n">
-        <v>369</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1462,16 +1462,16 @@
         <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0117026090156287</v>
+        <v>0.01176788192242384</v>
       </c>
       <c r="E34" t="n">
-        <v>10000000</v>
+        <v>8880592.255000001</v>
       </c>
       <c r="F34" t="n">
-        <v>8996404.33</v>
+        <v>8272965.624999999</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1485,16 +1485,16 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08837436474859714</v>
+        <v>0.08902622759342194</v>
       </c>
       <c r="E35" t="n">
-        <v>10387830.535</v>
+        <v>11146620.76</v>
       </c>
       <c r="F35" t="n">
-        <v>10387830.535</v>
+        <v>11146620.76</v>
       </c>
       <c r="G35" t="n">
-        <v>2124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1508,16 +1508,16 @@
         <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03090215232223272</v>
+        <v>0.01620328985154629</v>
       </c>
       <c r="E36" t="n">
-        <v>10553505.4</v>
+        <v>10000000</v>
       </c>
       <c r="F36" t="n">
-        <v>9654624.75</v>
+        <v>9847708</v>
       </c>
       <c r="G36" t="n">
-        <v>195</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1531,16 +1531,16 @@
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003102849505376071</v>
+        <v>0.003106584073975682</v>
       </c>
       <c r="E37" t="n">
-        <v>11411299.5985</v>
+        <v>10173183.8481</v>
       </c>
       <c r="F37" t="n">
-        <v>11411299.5985</v>
+        <v>11011730.7916</v>
       </c>
       <c r="G37" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1554,16 +1554,16 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2215628273785114</v>
+        <v>0.2172315865755081</v>
       </c>
       <c r="E38" t="n">
-        <v>10014384.25</v>
+        <v>9837948.16</v>
       </c>
       <c r="F38" t="n">
-        <v>10014384.25</v>
+        <v>9837948.16</v>
       </c>
       <c r="G38" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1577,16 +1577,16 @@
         <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01476586270146072</v>
+        <v>0.01466868817806244</v>
       </c>
       <c r="E39" t="n">
-        <v>10430654.357</v>
+        <v>10411018.885</v>
       </c>
       <c r="F39" t="n">
-        <v>10852761.94</v>
+        <v>10590007.64875</v>
       </c>
       <c r="G39" t="n">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1600,16 +1600,16 @@
         <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02482336843386292</v>
+        <v>0.02422899380326271</v>
       </c>
       <c r="E40" t="n">
         <v>10000000</v>
       </c>
       <c r="F40" t="n">
-        <v>10090534</v>
+        <v>10109441.92</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1623,16 +1623,16 @@
         <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01837253337725997</v>
+        <v>0.01670625060796738</v>
       </c>
       <c r="E41" t="n">
-        <v>10000000</v>
+        <v>9981598.890000001</v>
       </c>
       <c r="F41" t="n">
-        <v>9208376.875</v>
+        <v>8987740.075000003</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1646,16 +1646,16 @@
         <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006087386724539101</v>
+        <v>0.006113085895776749</v>
       </c>
       <c r="E42" t="n">
-        <v>10518185.2725</v>
+        <v>10155069.087</v>
       </c>
       <c r="F42" t="n">
-        <v>10468072.11525</v>
+        <v>10155069.087</v>
       </c>
       <c r="G42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1669,16 +1669,16 @@
         <v>48</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01600646683946252</v>
+        <v>0.01534634828567505</v>
       </c>
       <c r="E43" t="n">
-        <v>10576198.35</v>
+        <v>10724621.725</v>
       </c>
       <c r="F43" t="n">
-        <v>10253564.85</v>
+        <v>10266261.25</v>
       </c>
       <c r="G43" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1692,13 +1692,13 @@
         <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0151565111707896</v>
+        <v>0.01409983076155186</v>
       </c>
       <c r="E44" t="n">
         <v>10000000</v>
       </c>
       <c r="F44" t="n">
-        <v>10236402.2</v>
+        <v>10161468.25</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1715,16 +1715,16 @@
         <v>50</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00166625555139035</v>
+        <v>0.001669904799200594</v>
       </c>
       <c r="E45" t="n">
-        <v>8774780.790000001</v>
+        <v>9640857.9475</v>
       </c>
       <c r="F45" t="n">
-        <v>8213727.887500001</v>
+        <v>8937144.379000001</v>
       </c>
       <c r="G45" t="n">
-        <v>776</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1738,16 +1738,16 @@
         <v>51</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01226151487790048</v>
+        <v>0.01258235517889261</v>
       </c>
       <c r="E46" t="n">
         <v>10000000</v>
       </c>
       <c r="F46" t="n">
-        <v>9864819.339999998</v>
+        <v>10209348.425</v>
       </c>
       <c r="G46" t="n">
-        <v>637</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1761,16 +1761,16 @@
         <v>52</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009636970749124885</v>
+        <v>0.009250747039914131</v>
       </c>
       <c r="E47" t="n">
-        <v>11411215.135</v>
+        <v>9548494.600000001</v>
       </c>
       <c r="F47" t="n">
-        <v>13206556.375</v>
+        <v>13108739.425</v>
       </c>
       <c r="G47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1784,16 +1784,16 @@
         <v>53</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002530440199188888</v>
+        <v>0.002618245547637343</v>
       </c>
       <c r="E48" t="n">
-        <v>10375311.362</v>
+        <v>10066019.6845</v>
       </c>
       <c r="F48" t="n">
-        <v>10430580.08</v>
+        <v>10066019.6845</v>
       </c>
       <c r="G48" t="n">
-        <v>388</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1807,13 +1807,13 @@
         <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>0.008419063780456782</v>
+        <v>0.008545422926545143</v>
       </c>
       <c r="E49" t="n">
-        <v>10000000</v>
+        <v>10201317.9745</v>
       </c>
       <c r="F49" t="n">
-        <v>10281649.445</v>
+        <v>9982291.908749999</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>55</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01541682598181069</v>
+        <v>0.01563584432005882</v>
       </c>
       <c r="E50" t="n">
-        <v>10376860</v>
+        <v>10000000</v>
       </c>
       <c r="F50" t="n">
-        <v>10580740.65</v>
+        <v>10116527.5</v>
       </c>
       <c r="G50" t="n">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1853,16 +1853,16 @@
         <v>56</v>
       </c>
       <c r="D51" t="n">
-        <v>0.009744737436994911</v>
+        <v>0.009576632641255856</v>
       </c>
       <c r="E51" t="n">
-        <v>10000000</v>
+        <v>9464600.799999999</v>
       </c>
       <c r="F51" t="n">
-        <v>9414279.025</v>
+        <v>9464600.799999999</v>
       </c>
       <c r="G51" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1876,16 +1876,16 @@
         <v>57</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005932315019890666</v>
+        <v>0.005977880675345659</v>
       </c>
       <c r="E52" t="n">
-        <v>10015139.7145</v>
+        <v>9609598.27675</v>
       </c>
       <c r="F52" t="n">
-        <v>9536278.5405</v>
+        <v>9085423.372</v>
       </c>
       <c r="G52" t="n">
-        <v>213</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1899,16 +1899,16 @@
         <v>58</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005787577270530165</v>
+        <v>0.006035778671503067</v>
       </c>
       <c r="E53" t="n">
-        <v>10867853.8725</v>
+        <v>11144717.53</v>
       </c>
       <c r="F53" t="n">
-        <v>11566131.625</v>
+        <v>11144717.53</v>
       </c>
       <c r="G53" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1922,16 +1922,16 @@
         <v>59</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01502611748874188</v>
+        <v>0.01418970804661512</v>
       </c>
       <c r="E54" t="n">
-        <v>10406825.3125</v>
+        <v>10645096.31</v>
       </c>
       <c r="F54" t="n">
-        <v>10406825.3125</v>
+        <v>10569480.7825</v>
       </c>
       <c r="G54" t="n">
-        <v>541</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1945,16 +1945,16 @@
         <v>60</v>
       </c>
       <c r="D55" t="n">
-        <v>0.003867575479671359</v>
+        <v>0.003957495559006929</v>
       </c>
       <c r="E55" t="n">
-        <v>9709282.790000001</v>
+        <v>9587412.719999999</v>
       </c>
       <c r="F55" t="n">
-        <v>9438147.475</v>
+        <v>9587412.719999999</v>
       </c>
       <c r="G55" t="n">
-        <v>357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1968,16 +1968,16 @@
         <v>61</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002717686409596354</v>
+        <v>0.002164924750104547</v>
       </c>
       <c r="E56" t="n">
-        <v>11074146.319</v>
+        <v>10862235.121</v>
       </c>
       <c r="F56" t="n">
-        <v>11060536.135</v>
+        <v>11170069.0855</v>
       </c>
       <c r="G56" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1991,16 +1991,16 @@
         <v>62</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01078064097091556</v>
+        <v>0.01079029962420464</v>
       </c>
       <c r="E57" t="n">
         <v>10000000</v>
       </c>
       <c r="F57" t="n">
-        <v>9421651.8575</v>
+        <v>9269205</v>
       </c>
       <c r="G57" t="n">
-        <v>1295</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2014,16 +2014,16 @@
         <v>63</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01430129087530077</v>
+        <v>0.01383988466113806</v>
       </c>
       <c r="E58" t="n">
-        <v>10009804.65</v>
+        <v>9857650.455</v>
       </c>
       <c r="F58" t="n">
-        <v>9279008.200000001</v>
+        <v>9313521.239999998</v>
       </c>
       <c r="G58" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2037,16 +2037,16 @@
         <v>64</v>
       </c>
       <c r="D59" t="n">
-        <v>0.008861447498202325</v>
+        <v>0.00890421774238348</v>
       </c>
       <c r="E59" t="n">
         <v>10000000</v>
       </c>
       <c r="F59" t="n">
-        <v>10559937.84</v>
+        <v>10728993.46</v>
       </c>
       <c r="G59" t="n">
-        <v>1363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2060,16 +2060,16 @@
         <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02786550419405103</v>
+        <v>0.02866404317319393</v>
       </c>
       <c r="E60" t="n">
-        <v>11700673.9575</v>
+        <v>10000000</v>
       </c>
       <c r="F60" t="n">
-        <v>11700673.9575</v>
+        <v>11236046.1625</v>
       </c>
       <c r="G60" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2083,16 +2083,16 @@
         <v>66</v>
       </c>
       <c r="D61" t="n">
-        <v>0.008994788490235805</v>
+        <v>0.009018591605126858</v>
       </c>
       <c r="E61" t="n">
-        <v>10000000</v>
+        <v>9848110.927499998</v>
       </c>
       <c r="F61" t="n">
-        <v>10222325.2675</v>
+        <v>10342768.7125</v>
       </c>
       <c r="G61" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2106,13 +2106,13 @@
         <v>67</v>
       </c>
       <c r="D62" t="n">
-        <v>0.004647956998087466</v>
+        <v>0.004690758418291807</v>
       </c>
       <c r="E62" t="n">
         <v>10000000</v>
       </c>
       <c r="F62" t="n">
-        <v>9519674.98</v>
+        <v>9994172.4</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2129,16 +2129,16 @@
         <v>68</v>
       </c>
       <c r="D63" t="n">
-        <v>0.003210169647354633</v>
+        <v>0.003510297741740942</v>
       </c>
       <c r="E63" t="n">
-        <v>9901365.882250002</v>
+        <v>10000000</v>
       </c>
       <c r="F63" t="n">
-        <v>10133825.274</v>
+        <v>9740446.296500001</v>
       </c>
       <c r="G63" t="n">
-        <v>1983</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2152,16 +2152,16 @@
         <v>69</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02454038625583053</v>
+        <v>0.02114363759756088</v>
       </c>
       <c r="E64" t="n">
-        <v>10224576.4</v>
+        <v>10000000</v>
       </c>
       <c r="F64" t="n">
-        <v>10345366.6375</v>
+        <v>10149272.195</v>
       </c>
       <c r="G64" t="n">
-        <v>434</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2175,16 +2175,16 @@
         <v>70</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008927896618843079</v>
+        <v>0.008273371495306492</v>
       </c>
       <c r="E65" t="n">
-        <v>10108290.25</v>
+        <v>10309361.8</v>
       </c>
       <c r="F65" t="n">
-        <v>13205379.36</v>
+        <v>14374666.325</v>
       </c>
       <c r="G65" t="n">
-        <v>655</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2198,16 +2198,16 @@
         <v>71</v>
       </c>
       <c r="D66" t="n">
-        <v>0.006593430950306356</v>
+        <v>0.006684064399451017</v>
       </c>
       <c r="E66" t="n">
         <v>10000000</v>
       </c>
       <c r="F66" t="n">
-        <v>9330350.442499999</v>
+        <v>9592323.025</v>
       </c>
       <c r="G66" t="n">
-        <v>679</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2221,16 +2221,16 @@
         <v>72</v>
       </c>
       <c r="D67" t="n">
-        <v>0.008098123176023365</v>
+        <v>0.007966475561261177</v>
       </c>
       <c r="E67" t="n">
-        <v>10768907.595</v>
+        <v>11202285.2875</v>
       </c>
       <c r="F67" t="n">
-        <v>10899237.1075</v>
+        <v>10945370.8075</v>
       </c>
       <c r="G67" t="n">
-        <v>249</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2244,16 +2244,16 @@
         <v>73</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01079127667471766</v>
+        <v>0.01083745155483484</v>
       </c>
       <c r="E68" t="n">
-        <v>10000000</v>
+        <v>9746231.880000001</v>
       </c>
       <c r="F68" t="n">
-        <v>9271668.415000001</v>
+        <v>9746231.880000001</v>
       </c>
       <c r="G68" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2267,16 +2267,16 @@
         <v>74</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002911766536999494</v>
+        <v>0.002951163565739989</v>
       </c>
       <c r="E69" t="n">
-        <v>10520677.34305</v>
+        <v>12598720.6819</v>
       </c>
       <c r="F69" t="n">
-        <v>10651409.0589</v>
+        <v>10649758.31305</v>
       </c>
       <c r="G69" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2290,16 +2290,16 @@
         <v>75</v>
       </c>
       <c r="D70" t="n">
-        <v>0.008345391554757952</v>
+        <v>0.00830128975212574</v>
       </c>
       <c r="E70" t="n">
-        <v>10353234.112</v>
+        <v>10073023.457</v>
       </c>
       <c r="F70" t="n">
-        <v>9892816.048</v>
+        <v>9775682.464</v>
       </c>
       <c r="G70" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2313,16 +2313,16 @@
         <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002410025708377361</v>
+        <v>0.002706779399886727</v>
       </c>
       <c r="E71" t="n">
-        <v>10650629.9225</v>
+        <v>10000000</v>
       </c>
       <c r="F71" t="n">
-        <v>10885165.81</v>
+        <v>9531888.669999998</v>
       </c>
       <c r="G71" t="n">
-        <v>1098</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2336,16 +2336,16 @@
         <v>77</v>
       </c>
       <c r="D72" t="n">
-        <v>0.008484114892780781</v>
+        <v>0.008429952897131443</v>
       </c>
       <c r="E72" t="n">
         <v>10000000</v>
       </c>
       <c r="F72" t="n">
-        <v>12320247.25</v>
+        <v>13351122.475</v>
       </c>
       <c r="G72" t="n">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2359,16 +2359,16 @@
         <v>78</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02869271226227283</v>
+        <v>0.02368316985666752</v>
       </c>
       <c r="E73" t="n">
-        <v>10000000</v>
+        <v>11886649.555</v>
       </c>
       <c r="F73" t="n">
-        <v>11943084</v>
+        <v>11886649.555</v>
       </c>
       <c r="G73" t="n">
-        <v>2096</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2382,16 +2382,16 @@
         <v>79</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01631975006312132</v>
+        <v>0.01654897630214691</v>
       </c>
       <c r="E74" t="n">
         <v>10000000</v>
       </c>
       <c r="F74" t="n">
-        <v>10020267.6</v>
+        <v>10003511.77</v>
       </c>
       <c r="G74" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2405,16 +2405,16 @@
         <v>80</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03851905539631843</v>
+        <v>0.05170130729675293</v>
       </c>
       <c r="E75" t="n">
-        <v>9646704.857500002</v>
+        <v>9292797.1675</v>
       </c>
       <c r="F75" t="n">
-        <v>9673416.25</v>
+        <v>9292797.1675</v>
       </c>
       <c r="G75" t="n">
-        <v>742</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2428,16 +2428,16 @@
         <v>81</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005729224951937795</v>
+        <v>0.006923095788806677</v>
       </c>
       <c r="E76" t="n">
-        <v>11440874.374</v>
+        <v>11077074.5905</v>
       </c>
       <c r="F76" t="n">
-        <v>11777312.531</v>
+        <v>11651806.418</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2451,16 +2451,16 @@
         <v>82</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01554020349867642</v>
+        <v>0.016441835090518</v>
       </c>
       <c r="E77" t="n">
-        <v>10110753.3375</v>
+        <v>10000000</v>
       </c>
       <c r="F77" t="n">
-        <v>10753886.575</v>
+        <v>10495583.0125</v>
       </c>
       <c r="G77" t="n">
-        <v>2099</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2474,16 +2474,16 @@
         <v>83</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01491610780358315</v>
+        <v>0.01514535024762154</v>
       </c>
       <c r="E78" t="n">
-        <v>9538414.725</v>
+        <v>10479221.9145</v>
       </c>
       <c r="F78" t="n">
-        <v>10753085.242</v>
+        <v>11197078.834</v>
       </c>
       <c r="G78" t="n">
-        <v>498</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2497,16 +2497,16 @@
         <v>84</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00157627880689688</v>
+        <v>0.001575886504724622</v>
       </c>
       <c r="E79" t="n">
-        <v>9972159.136</v>
+        <v>10131845.98</v>
       </c>
       <c r="F79" t="n">
-        <v>9798737.626</v>
+        <v>9880547.390500002</v>
       </c>
       <c r="G79" t="n">
-        <v>677</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2520,16 +2520,16 @@
         <v>85</v>
       </c>
       <c r="D80" t="n">
-        <v>0.008412170829251409</v>
+        <v>0.00835528876632452</v>
       </c>
       <c r="E80" t="n">
-        <v>9668862.730000002</v>
+        <v>10052821.5275</v>
       </c>
       <c r="F80" t="n">
-        <v>9492430.664999999</v>
+        <v>9990240.795000002</v>
       </c>
       <c r="G80" t="n">
-        <v>305</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2543,16 +2543,16 @@
         <v>86</v>
       </c>
       <c r="D81" t="n">
-        <v>0.003157887072302401</v>
+        <v>0.003188354196026921</v>
       </c>
       <c r="E81" t="n">
-        <v>10000000</v>
+        <v>9787209.337500002</v>
       </c>
       <c r="F81" t="n">
-        <v>9991352.102499999</v>
+        <v>10041614.3545</v>
       </c>
       <c r="G81" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2566,16 +2566,16 @@
         <v>87</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01127961319871247</v>
+        <v>0.01144744455814362</v>
       </c>
       <c r="E82" t="n">
         <v>10000000</v>
       </c>
       <c r="F82" t="n">
-        <v>10182813.9</v>
+        <v>10124654.1</v>
       </c>
       <c r="G82" t="n">
-        <v>425</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2589,16 +2589,16 @@
         <v>88</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01038427008315921</v>
+        <v>0.01059230137616396</v>
       </c>
       <c r="E83" t="n">
-        <v>10760629.85</v>
+        <v>10000000</v>
       </c>
       <c r="F83" t="n">
-        <v>10836641.25</v>
+        <v>10383703.1</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2612,16 +2612,16 @@
         <v>89</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01033535529859364</v>
+        <v>0.01046175044029951</v>
       </c>
       <c r="E84" t="n">
-        <v>10000000</v>
+        <v>10408466.395</v>
       </c>
       <c r="F84" t="n">
-        <v>10038873.2275</v>
+        <v>10408466.395</v>
       </c>
       <c r="G84" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2635,16 +2635,16 @@
         <v>90</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004106892738491297</v>
+        <v>0.004176539368927479</v>
       </c>
       <c r="E85" t="n">
-        <v>10367241.6</v>
+        <v>10000000</v>
       </c>
       <c r="F85" t="n">
-        <v>10367241.6</v>
+        <v>10242731.713</v>
       </c>
       <c r="G85" t="n">
-        <v>331</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2658,16 +2658,16 @@
         <v>91</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01337206452153623</v>
+        <v>0.01447105314582586</v>
       </c>
       <c r="E86" t="n">
-        <v>10000000</v>
+        <v>9823672.439999999</v>
       </c>
       <c r="F86" t="n">
-        <v>9629609.5375</v>
+        <v>9823672.439999999</v>
       </c>
       <c r="G86" t="n">
-        <v>749</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2681,16 +2681,16 @@
         <v>92</v>
       </c>
       <c r="D87" t="n">
-        <v>0.008602324873209</v>
+        <v>0.008704769425094128</v>
       </c>
       <c r="E87" t="n">
         <v>10000000</v>
       </c>
       <c r="F87" t="n">
-        <v>10674346.96</v>
+        <v>10415623.75</v>
       </c>
       <c r="G87" t="n">
-        <v>1398</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2704,16 +2704,16 @@
         <v>93</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01607060320675373</v>
+        <v>0.02141035534441471</v>
       </c>
       <c r="E88" t="n">
-        <v>9678443.5</v>
+        <v>10000000</v>
       </c>
       <c r="F88" t="n">
-        <v>9910290.565000001</v>
+        <v>10059745.99</v>
       </c>
       <c r="G88" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2727,16 +2727,16 @@
         <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>0.006183933489955962</v>
+        <v>0.006375268567353487</v>
       </c>
       <c r="E89" t="n">
-        <v>10000000</v>
+        <v>9926341.720000001</v>
       </c>
       <c r="F89" t="n">
-        <v>10557750.075</v>
+        <v>9885670.24</v>
       </c>
       <c r="G89" t="n">
-        <v>397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2750,16 +2750,16 @@
         <v>95</v>
       </c>
       <c r="D90" t="n">
-        <v>0.007105892081744969</v>
+        <v>0.007157214917242527</v>
       </c>
       <c r="E90" t="n">
-        <v>10286982.815</v>
+        <v>9556058.145</v>
       </c>
       <c r="F90" t="n">
-        <v>9708517.65</v>
+        <v>9556058.145</v>
       </c>
       <c r="G90" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2773,16 +2773,16 @@
         <v>96</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02461637863889337</v>
+        <v>0.02648988924920559</v>
       </c>
       <c r="E91" t="n">
-        <v>9834198.1425</v>
+        <v>10290779.52</v>
       </c>
       <c r="F91" t="n">
-        <v>10457179.03</v>
+        <v>10290779.52</v>
       </c>
       <c r="G91" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2796,16 +2796,16 @@
         <v>97</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02339203795418143</v>
+        <v>0.02825656719505787</v>
       </c>
       <c r="E92" t="n">
-        <v>10018849.6</v>
+        <v>10226675.75</v>
       </c>
       <c r="F92" t="n">
-        <v>9661796.049999999</v>
+        <v>10023645.3</v>
       </c>
       <c r="G92" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2819,16 +2819,16 @@
         <v>98</v>
       </c>
       <c r="D93" t="n">
-        <v>0.007416861015371978</v>
+        <v>0.007517383433878422</v>
       </c>
       <c r="E93" t="n">
-        <v>10000000</v>
+        <v>10256117.2965</v>
       </c>
       <c r="F93" t="n">
-        <v>10679052.862</v>
+        <v>10256117.2965</v>
       </c>
       <c r="G93" t="n">
-        <v>627</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2842,16 +2842,16 @@
         <v>99</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00268417987972498</v>
+        <v>0.002753666369244456</v>
       </c>
       <c r="E94" t="n">
-        <v>9725937.296499999</v>
+        <v>9673850.576000001</v>
       </c>
       <c r="F94" t="n">
-        <v>9654441.296</v>
+        <v>9673850.576000001</v>
       </c>
       <c r="G94" t="n">
-        <v>191</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2865,16 +2865,16 @@
         <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0009275919845094904</v>
+        <v>0.001081690308637917</v>
       </c>
       <c r="E95" t="n">
-        <v>10504707.24765</v>
+        <v>10409984.43165</v>
       </c>
       <c r="F95" t="n">
-        <v>11883842.5732</v>
+        <v>10590806.8549</v>
       </c>
       <c r="G95" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2888,16 +2888,16 @@
         <v>101</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01598811186850071</v>
+        <v>0.01520253904163837</v>
       </c>
       <c r="E96" t="n">
         <v>10000000</v>
       </c>
       <c r="F96" t="n">
-        <v>9640649.800000001</v>
+        <v>9087791.5</v>
       </c>
       <c r="G96" t="n">
-        <v>1416</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2911,16 +2911,16 @@
         <v>102</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01361415712162852</v>
+        <v>0.01489200908690691</v>
       </c>
       <c r="E97" t="n">
-        <v>9947006.466</v>
+        <v>9136315.850500001</v>
       </c>
       <c r="F97" t="n">
-        <v>8881777.862</v>
+        <v>9136315.850500001</v>
       </c>
       <c r="G97" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2934,16 +2934,16 @@
         <v>103</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001318616204662248</v>
+        <v>0.001350529259070754</v>
       </c>
       <c r="E98" t="n">
-        <v>10000000</v>
+        <v>9872983.972000001</v>
       </c>
       <c r="F98" t="n">
-        <v>10788237.241</v>
+        <v>9872983.972000001</v>
       </c>
       <c r="G98" t="n">
-        <v>326</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2957,13 +2957,13 @@
         <v>104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.04339548386633396</v>
+        <v>0.0307006724178791</v>
       </c>
       <c r="E99" t="n">
         <v>10000000</v>
       </c>
       <c r="F99" t="n">
-        <v>9638712.880000001</v>
+        <v>8724040.605</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2980,16 +2980,16 @@
         <v>105</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07216674126684666</v>
+        <v>0.07972713559865952</v>
       </c>
       <c r="E100" t="n">
-        <v>11242957.1425</v>
+        <v>11462367.4</v>
       </c>
       <c r="F100" t="n">
-        <v>11242957.1425</v>
+        <v>11462367.4</v>
       </c>
       <c r="G100" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3003,16 +3003,16 @@
         <v>106</v>
       </c>
       <c r="D101" t="n">
-        <v>0.003641547460574657</v>
+        <v>0.003684320487082005</v>
       </c>
       <c r="E101" t="n">
-        <v>10000000</v>
+        <v>10050050.805</v>
       </c>
       <c r="F101" t="n">
-        <v>9767115.07</v>
+        <v>9717900.385000002</v>
       </c>
       <c r="G101" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
